--- a/Echéancier_Projet_Majeur ESE.xlsx
+++ b/Echéancier_Projet_Majeur ESE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anico\Desktop\Ecole\5a\Projet Majeur\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA9AC39-7B3C-411F-AAAB-C6F5157C517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5758EDCE-AF7E-4688-91A6-508C3A5CA21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{774EF737-9EED-4A79-AB39-48E94AA75185}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Sept</t>
   </si>
@@ -137,56 +137,71 @@
     <t>IHM basique</t>
   </si>
   <si>
-    <t>Traitement du bras à 6 axes</t>
-  </si>
-  <si>
     <t>IHM complète</t>
   </si>
   <si>
     <t>Rapport de conception = RC</t>
   </si>
   <si>
-    <t>Réalisation PCB 2 Pont en H  - RC</t>
-  </si>
-  <si>
-    <t>Réalisation PCB 3 interface capteur  - RC</t>
-  </si>
-  <si>
-    <t>Réalisation PCB 1 - RC</t>
-  </si>
-  <si>
     <t>Séquenceur sur STM32 fonctionnel + RC</t>
   </si>
   <si>
-    <t>Traitement capteur RFID + RC</t>
-  </si>
-  <si>
     <t>Traitement du mouvement basique + RC</t>
   </si>
   <si>
     <t>Traitement capteur télémètres à ultrason + RC</t>
   </si>
   <si>
-    <t>Traitement capteur LIDAR + RC</t>
-  </si>
-  <si>
-    <t>Traitement communication (ZIGBEE + I2C + SPI +UART) + RC</t>
-  </si>
-  <si>
-    <t>Réalisation PCB 3 interface capteur (min Schematic Kicad)</t>
-  </si>
-  <si>
-    <t>Traitement du mouvement complexe (obstacles sur 3 angles)</t>
-  </si>
-  <si>
-    <t>Traitement mvt complet (obstacles sur 360° + suivie personne )</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A.L</t>
+  </si>
+  <si>
+    <t>A.N</t>
+  </si>
+  <si>
+    <t>J+C</t>
+  </si>
+  <si>
+    <t>Réalisation PCB 3 interface capteur + recherche capteur</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Mµ M0 Communication I2C</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Y+C</t>
+  </si>
+  <si>
+    <t>Traitement communication (ZIGBEE)+ RC</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Carte Master Algo + com  SPI</t>
+  </si>
+  <si>
+    <t>Traitement capteur RFID carte master</t>
+  </si>
+  <si>
+    <t>Traitement suivie IR + détection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odométrie sur carte master </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +302,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +445,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,7 +729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -741,11 +769,8 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -755,8 +780,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -766,6 +789,53 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="% achevé" xfId="12" xr:uid="{29480A12-40E8-49FE-9E58-85EBD872FE8A}"/>
@@ -812,9 +882,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>40640</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>122244</xdr:rowOff>
+      <xdr:colOff>82585</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115253</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1077411" cy="436786"/>
     <xdr:sp macro="" textlink="">
@@ -830,7 +900,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8562161" y="6196779"/>
+          <a:off x="8639356" y="5260501"/>
           <a:ext cx="1077411" cy="436786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1268,9 +1338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731813DB-2D46-47B9-82E8-A8CBF78544BF}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,31 +1353,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="46"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D2" s="4" t="s">
@@ -1350,7 +1420,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="7">
         <v>38</v>
@@ -1472,7 +1542,7 @@
       <c r="X4" s="28"/>
       <c r="Y4" s="28"/>
       <c r="Z4" s="28"/>
-      <c r="AA4" s="63"/>
+      <c r="AA4" s="58"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -1593,19 +1663,25 @@
         <v>11</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="10"/>
@@ -1617,23 +1693,29 @@
       <c r="AA9" s="11"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="39" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
+      <c r="G10" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="66"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
       <c r="U10" s="10"/>
@@ -1646,22 +1728,26 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
       <c r="U11" s="10"/>
@@ -1673,23 +1759,25 @@
       <c r="AA11" s="11"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
-        <v>34</v>
+      <c r="A12" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="10"/>
@@ -1702,22 +1790,24 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
       <c r="U13" s="10"/>
@@ -1729,23 +1819,25 @@
       <c r="AA13" s="11"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
-        <v>33</v>
+      <c r="A14" s="39" t="s">
+        <v>16</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
       <c r="U14" s="10"/>
@@ -1758,22 +1850,22 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="10"/>
@@ -1785,23 +1877,23 @@
       <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
-        <v>14</v>
+      <c r="A16" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="U16" s="10"/>
@@ -1814,22 +1906,24 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="10"/>
@@ -1841,30 +1935,30 @@
       <c r="AA17" s="11"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="42"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="64"/>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
-      <c r="U18" s="42"/>
+      <c r="U18" s="40"/>
       <c r="V18" s="10"/>
       <c r="W18" s="25"/>
       <c r="X18" s="10"/>
@@ -1873,26 +1967,30 @@
       <c r="AA18" s="11"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="40"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
+      <c r="A19" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
       <c r="W19" s="17"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
@@ -1900,27 +1998,27 @@
       <c r="AA19" s="11"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
+      <c r="A20" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
       <c r="W20" s="17"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
@@ -1928,28 +2026,29 @@
       <c r="AA20" s="11"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="25"/>
+      <c r="A21" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="63"/>
+      <c r="N21" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="74"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="17"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
@@ -1957,29 +2056,34 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="62"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
       <c r="W22" s="17"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
@@ -1987,22 +2091,23 @@
       <c r="AA22" s="11"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
-        <v>35</v>
+      <c r="A23" s="49" t="s">
+        <v>33</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
       <c r="U23" s="10"/>
@@ -2014,48 +2119,62 @@
       <c r="AA23" s="11"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="10"/>
+      <c r="A24" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="62"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="11"/>
       <c r="V24" s="10"/>
-      <c r="W24" s="17"/>
+      <c r="W24" s="25"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="11"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="R25" s="11"/>
+      <c r="A25" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" s="69"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="63"/>
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
       <c r="U25" s="11"/>
@@ -2067,77 +2186,91 @@
       <c r="AA25" s="11"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="10"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="17"/>
+      <c r="A26" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="26"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="50" t="s">
-        <v>39</v>
+      <c r="A27" s="49" t="s">
+        <v>45</v>
       </c>
       <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="51"/>
-      <c r="R27" s="10"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="68"/>
+      <c r="R27" s="74"/>
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
       <c r="U27" s="11"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="25"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="26"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="R28" s="10"/>
+      <c r="A28" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="62"/>
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
-      <c r="U28" s="11"/>
+      <c r="U28" s="59"/>
       <c r="V28" s="11"/>
       <c r="W28" s="17"/>
       <c r="X28" s="11"/>
@@ -2146,26 +2279,27 @@
       <c r="AA28" s="11"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
-        <v>28</v>
+      <c r="A29" s="49" t="s">
+        <v>48</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="51"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
       <c r="W29" s="26"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
@@ -2173,26 +2307,27 @@
       <c r="AA29" s="11"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="52" t="s">
-        <v>42</v>
+      <c r="A30" s="47" t="s">
+        <v>17</v>
       </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
       <c r="W30" s="26"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
@@ -2200,55 +2335,58 @@
       <c r="AA30" s="11"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
-        <v>43</v>
+      <c r="A31" s="49" t="s">
+        <v>29</v>
       </c>
       <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="17"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="26"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
+      <c r="A32" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
       <c r="W32" s="26"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
@@ -2256,11 +2394,13 @@
       <c r="AA32" s="11"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="50" t="s">
-        <v>17</v>
+      <c r="A33" s="54" t="s">
+        <v>24</v>
       </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -2268,107 +2408,34 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
+      <c r="N33" s="10"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="26"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="25"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R34" s="11"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="26"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="26"/>
       <c r="X35" s="10"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="25"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
